--- a/data/Gustavo CastilloT4-2024.xlsx
+++ b/data/Gustavo CastilloT4-2024.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="By Song" sheetId="1" state="visible" r:id="rId1"/>
@@ -489,7 +489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="C3:I14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10:F14"/>
@@ -502,6 +502,8 @@
     <col width="25" customWidth="1" min="5" max="6"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -509,6 +511,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -516,6 +519,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -569,8 +573,6 @@
       <c r="F10" s="8" t="n">
         <v>0.35596725</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
@@ -668,7 +670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="C3:E22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10:E22"/>
@@ -680,6 +682,8 @@
     <col width="25" customWidth="1" min="4" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -687,6 +691,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -694,6 +699,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -896,7 +902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="C3:E12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10:E12"/>
@@ -908,6 +914,8 @@
     <col width="25" customWidth="1" min="4" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -915,6 +923,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -922,6 +931,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
